--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.75663530381854</v>
+        <v>0.6019246666666667</v>
       </c>
       <c r="N2">
-        <v>5.75663530381854</v>
+        <v>1.805774</v>
       </c>
       <c r="O2">
-        <v>0.6291366202852809</v>
+        <v>0.05746655956902961</v>
       </c>
       <c r="P2">
-        <v>0.6291366202852809</v>
+        <v>0.0574665595690296</v>
       </c>
       <c r="Q2">
-        <v>45.79372966267436</v>
+        <v>0.1295187388668889</v>
       </c>
       <c r="R2">
-        <v>45.79372966267436</v>
+        <v>1.165668649802</v>
       </c>
       <c r="S2">
-        <v>0.4698477373356356</v>
+        <v>0.001118235310086254</v>
       </c>
       <c r="T2">
-        <v>0.4698477373356356</v>
+        <v>0.001118235310086253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.39342069070965</v>
+        <v>5.794889</v>
       </c>
       <c r="N3">
-        <v>3.39342069070965</v>
+        <v>17.384667</v>
       </c>
       <c r="O3">
-        <v>0.3708633797147191</v>
+        <v>0.5532458667270895</v>
       </c>
       <c r="P3">
-        <v>0.3708633797147191</v>
+        <v>0.5532458667270894</v>
       </c>
       <c r="Q3">
-        <v>26.99448228707556</v>
+        <v>1.246911377315667</v>
       </c>
       <c r="R3">
-        <v>26.99448228707556</v>
+        <v>11.222202395841</v>
       </c>
       <c r="S3">
-        <v>0.2769657880359824</v>
+        <v>0.01076554900751216</v>
       </c>
       <c r="T3">
-        <v>0.2769657880359824</v>
+        <v>0.01076554900751216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.508987418190017</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>0.508987418190017</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.75663530381854</v>
+        <v>0.3673473333333333</v>
       </c>
       <c r="N4">
-        <v>5.75663530381854</v>
+        <v>1.102042</v>
       </c>
       <c r="O4">
-        <v>0.6291366202852809</v>
+        <v>0.03507114524883653</v>
       </c>
       <c r="P4">
-        <v>0.6291366202852809</v>
+        <v>0.03507114524883652</v>
       </c>
       <c r="Q4">
-        <v>2.930054940752103</v>
+        <v>0.07904371755177778</v>
       </c>
       <c r="R4">
-        <v>2.930054940752103</v>
+        <v>0.711393457966</v>
       </c>
       <c r="S4">
-        <v>0.03006262416977978</v>
+        <v>0.0006824454652675667</v>
       </c>
       <c r="T4">
-        <v>0.03006262416977978</v>
+        <v>0.0006824454652675665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.508987418190017</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H5">
-        <v>0.508987418190017</v>
+        <v>0.645523</v>
       </c>
       <c r="I5">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J5">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.39342069070965</v>
+        <v>3.710185666666666</v>
       </c>
       <c r="N5">
-        <v>3.39342069070965</v>
+        <v>11.130557</v>
       </c>
       <c r="O5">
-        <v>0.3708633797147191</v>
+        <v>0.3542164284550445</v>
       </c>
       <c r="P5">
-        <v>0.3708633797147191</v>
+        <v>0.3542164284550444</v>
       </c>
       <c r="Q5">
-        <v>1.727208436196889</v>
+        <v>0.7983367273678889</v>
       </c>
       <c r="R5">
-        <v>1.727208436196889</v>
+        <v>7.185030546310999</v>
       </c>
       <c r="S5">
-        <v>0.01772131210172185</v>
+        <v>0.006892657585239193</v>
       </c>
       <c r="T5">
-        <v>0.01772131210172185</v>
+        <v>0.006892657585239192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.18791744350908</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>2.18791744350908</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.75663530381854</v>
+        <v>0.6019246666666667</v>
       </c>
       <c r="N6">
-        <v>5.75663530381854</v>
+        <v>1.805774</v>
       </c>
       <c r="O6">
-        <v>0.6291366202852809</v>
+        <v>0.05746655956902961</v>
       </c>
       <c r="P6">
-        <v>0.6291366202852809</v>
+        <v>0.0574665595690296</v>
       </c>
       <c r="Q6">
-        <v>12.59504279714478</v>
+        <v>4.861854681672889</v>
       </c>
       <c r="R6">
-        <v>12.59504279714478</v>
+        <v>43.756692135056</v>
       </c>
       <c r="S6">
-        <v>0.1292262587798657</v>
+        <v>0.04197614665737503</v>
       </c>
       <c r="T6">
-        <v>0.1292262587798657</v>
+        <v>0.04197614665737502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.077181333333334</v>
+      </c>
+      <c r="H7">
+        <v>24.231544</v>
+      </c>
+      <c r="I7">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="J7">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.794889</v>
+      </c>
+      <c r="N7">
+        <v>17.384667</v>
+      </c>
+      <c r="O7">
+        <v>0.5532458667270895</v>
+      </c>
+      <c r="P7">
+        <v>0.5532458667270894</v>
+      </c>
+      <c r="Q7">
+        <v>46.80636925953867</v>
+      </c>
+      <c r="R7">
+        <v>421.257323335848</v>
+      </c>
+      <c r="S7">
+        <v>0.4041155380361153</v>
+      </c>
+      <c r="T7">
+        <v>0.4041155380361152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.077181333333334</v>
+      </c>
+      <c r="H8">
+        <v>24.231544</v>
+      </c>
+      <c r="I8">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="J8">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3673473333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.102042</v>
+      </c>
+      <c r="O8">
+        <v>0.03507114524883653</v>
+      </c>
+      <c r="P8">
+        <v>0.03507114524883652</v>
+      </c>
+      <c r="Q8">
+        <v>2.967131023649778</v>
+      </c>
+      <c r="R8">
+        <v>26.704179212848</v>
+      </c>
+      <c r="S8">
+        <v>0.02561753387444215</v>
+      </c>
+      <c r="T8">
+        <v>0.02561753387444214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.077181333333334</v>
+      </c>
+      <c r="H9">
+        <v>24.231544</v>
+      </c>
+      <c r="I9">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="J9">
+        <v>0.730444748601188</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.710185666666666</v>
+      </c>
+      <c r="N9">
+        <v>11.130557</v>
+      </c>
+      <c r="O9">
+        <v>0.3542164284550445</v>
+      </c>
+      <c r="P9">
+        <v>0.3542164284550444</v>
+      </c>
+      <c r="Q9">
+        <v>29.96784241000089</v>
+      </c>
+      <c r="R9">
+        <v>269.710581690008</v>
+      </c>
+      <c r="S9">
+        <v>0.2587355300332557</v>
+      </c>
+      <c r="T9">
+        <v>0.2587355300332556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.519176</v>
+      </c>
+      <c r="H10">
+        <v>1.557528</v>
+      </c>
+      <c r="I10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6019246666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.805774</v>
+      </c>
+      <c r="O10">
+        <v>0.05746655956902961</v>
+      </c>
+      <c r="P10">
+        <v>0.0574665595690296</v>
+      </c>
+      <c r="Q10">
+        <v>0.3125048407413333</v>
+      </c>
+      <c r="R10">
+        <v>2.812543566672</v>
+      </c>
+      <c r="S10">
+        <v>0.002698095662041511</v>
+      </c>
+      <c r="T10">
+        <v>0.002698095662041511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H7">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I7">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J7">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.39342069070965</v>
-      </c>
-      <c r="N7">
-        <v>3.39342069070965</v>
-      </c>
-      <c r="O7">
-        <v>0.3708633797147191</v>
-      </c>
-      <c r="P7">
-        <v>0.3708633797147191</v>
-      </c>
-      <c r="Q7">
-        <v>7.424524322368272</v>
-      </c>
-      <c r="R7">
-        <v>7.424524322368272</v>
-      </c>
-      <c r="S7">
-        <v>0.07617627957701499</v>
-      </c>
-      <c r="T7">
-        <v>0.07617627957701499</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.519176</v>
+      </c>
+      <c r="H11">
+        <v>1.557528</v>
+      </c>
+      <c r="I11">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J11">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.794889</v>
+      </c>
+      <c r="N11">
+        <v>17.384667</v>
+      </c>
+      <c r="O11">
+        <v>0.5532458667270895</v>
+      </c>
+      <c r="P11">
+        <v>0.5532458667270894</v>
+      </c>
+      <c r="Q11">
+        <v>3.008567291464</v>
+      </c>
+      <c r="R11">
+        <v>27.077105623176</v>
+      </c>
+      <c r="S11">
+        <v>0.02597528517895164</v>
+      </c>
+      <c r="T11">
+        <v>0.02597528517895163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.519176</v>
+      </c>
+      <c r="H12">
+        <v>1.557528</v>
+      </c>
+      <c r="I12">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J12">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.3673473333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.102042</v>
+      </c>
+      <c r="O12">
+        <v>0.03507114524883653</v>
+      </c>
+      <c r="P12">
+        <v>0.03507114524883652</v>
+      </c>
+      <c r="Q12">
+        <v>0.1907179191306666</v>
+      </c>
+      <c r="R12">
+        <v>1.716461272176</v>
+      </c>
+      <c r="S12">
+        <v>0.0016466151022152</v>
+      </c>
+      <c r="T12">
+        <v>0.0016466151022152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.519176</v>
+      </c>
+      <c r="H13">
+        <v>1.557528</v>
+      </c>
+      <c r="I13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.710185666666666</v>
+      </c>
+      <c r="N13">
+        <v>11.130557</v>
+      </c>
+      <c r="O13">
+        <v>0.3542164284550445</v>
+      </c>
+      <c r="P13">
+        <v>0.3542164284550444</v>
+      </c>
+      <c r="Q13">
+        <v>1.926239353677333</v>
+      </c>
+      <c r="R13">
+        <v>17.336154183096</v>
+      </c>
+      <c r="S13">
+        <v>0.01663071212555157</v>
+      </c>
+      <c r="T13">
+        <v>0.01663071212555157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.73909</v>
+      </c>
+      <c r="I14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6019246666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.805774</v>
+      </c>
+      <c r="O14">
+        <v>0.05746655956902961</v>
+      </c>
+      <c r="P14">
+        <v>0.0574665595690296</v>
+      </c>
+      <c r="Q14">
+        <v>1.352141500628889</v>
+      </c>
+      <c r="R14">
+        <v>12.16927350566</v>
+      </c>
+      <c r="S14">
+        <v>0.01167408193952682</v>
+      </c>
+      <c r="T14">
+        <v>0.01167408193952682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.73909</v>
+      </c>
+      <c r="I15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.794889</v>
+      </c>
+      <c r="N15">
+        <v>17.384667</v>
+      </c>
+      <c r="O15">
+        <v>0.5532458667270895</v>
+      </c>
+      <c r="P15">
+        <v>0.5532458667270894</v>
+      </c>
+      <c r="Q15">
+        <v>13.01742617033667</v>
+      </c>
+      <c r="R15">
+        <v>117.15683553303</v>
+      </c>
+      <c r="S15">
+        <v>0.1123894945045105</v>
+      </c>
+      <c r="T15">
+        <v>0.1123894945045105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.73909</v>
+      </c>
+      <c r="I16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.3673473333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.102042</v>
+      </c>
+      <c r="O16">
+        <v>0.03507114524883653</v>
+      </c>
+      <c r="P16">
+        <v>0.03507114524883652</v>
+      </c>
+      <c r="Q16">
+        <v>0.8251955801977777</v>
+      </c>
+      <c r="R16">
+        <v>7.42676022178</v>
+      </c>
+      <c r="S16">
+        <v>0.007124550806911615</v>
+      </c>
+      <c r="T16">
+        <v>0.007124550806911613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.73909</v>
+      </c>
+      <c r="I17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.710185666666666</v>
+      </c>
+      <c r="N17">
+        <v>11.130557</v>
+      </c>
+      <c r="O17">
+        <v>0.3542164284550445</v>
+      </c>
+      <c r="P17">
+        <v>0.3542164284550444</v>
+      </c>
+      <c r="Q17">
+        <v>8.334425041458889</v>
+      </c>
+      <c r="R17">
+        <v>75.00982537313</v>
+      </c>
+      <c r="S17">
+        <v>0.07195752871099806</v>
+      </c>
+      <c r="T17">
+        <v>0.07195752871099804</v>
       </c>
     </row>
   </sheetData>
